--- a/biology/Biochimie/Sécostéroïde/Sécostéroïde.xlsx
+++ b/biology/Biochimie/Sécostéroïde/Sécostéroïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9cost%C3%A9ro%C3%AFde</t>
+          <t>Sécostéroïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sécostéroïde est une molécule parente des stéroïdes, dont l'une des liaisons du noyau tétracyclique est rompue.
 Les sécostéroïdes sont classés en fonction de cette liaison rompue : un 9,10-sécostéroïde, par exemple, aura la liaison entre C9 et C10 du cycle B rompue et comportera donc un noyau bicyclique CD relié au cycle A par deux atomes de carbone.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9cost%C3%A9ro%C3%AFde</t>
+          <t>Sécostéroïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sécostéroïdes chez l'homme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux formes de la vitamine D (D2 (ergocalciférol) et D3 (cholécalciférol) sont des 9,10-sécostéroïdes.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9cost%C3%A9ro%C3%AFde</t>
+          <t>Sécostéroïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Sécostéroïdes d'origine marine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux sécostéroïdes isolés à ce jour sont d'origine marine et sont notamment extraits de gorgones [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux sécostéroïdes isolés à ce jour sont d'origine marine et sont notamment extraits de gorgones .
 			Un 9,10-sécostéroïde : l'astrogorgiadiol
 			Un 5,6-sécostéroïde : l'hippostérol
 			Un 8,9-sécostéroïde : le jereisterol A
